--- a/differential_gene_expression/expr_stats.xlsx
+++ b/differential_gene_expression/expr_stats.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuig/Dropbox (KAUST)/data/Maha_CommBiol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cuig/Dropbox (KAUST)/increased_incompatibility/differential_gene_expression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04292B7-315D-BA49-847E-A198E4688F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9FFBA6-4D44-2942-AE9C-B3F15A607014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{9A961903-5B38-1844-9B77-948244BA2F28}"/>
+    <workbookView xWindow="21420" yWindow="4160" windowWidth="11780" windowHeight="17440" xr2:uid="{9A961903-5B38-1844-9B77-948244BA2F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -516,7 +516,7 @@
         <v>0.24</v>
       </c>
       <c r="E2" s="1">
-        <v>10275</v>
+        <v>25647</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>0.272727</v>
       </c>
       <c r="E3" s="1">
-        <v>10293</v>
+        <v>25590</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,7 +550,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>10236</v>
+        <v>26122</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>0.36</v>
       </c>
       <c r="E5" s="1">
-        <v>10208</v>
+        <v>26082</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -584,7 +584,7 @@
         <v>0.22580600000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>10300</v>
+        <v>25819</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -601,7 +601,7 @@
         <v>0.269231</v>
       </c>
       <c r="E7" s="1">
-        <v>10265</v>
+        <v>25947</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -618,7 +618,7 @@
         <v>0.36</v>
       </c>
       <c r="E8" s="1">
-        <v>10193</v>
+        <v>26163</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>0.36</v>
       </c>
       <c r="E9" s="1">
-        <v>10210</v>
+        <v>26007</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>0.3</v>
       </c>
       <c r="E10" s="1">
-        <v>10234</v>
+        <v>26040</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>0.31034499999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>10218</v>
+        <v>26094</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>0.39285700000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>10192</v>
+        <v>26195</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>10190</v>
+        <v>25950</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>0.25</v>
       </c>
       <c r="E14" s="1">
-        <v>10215</v>
+        <v>26030</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
         <v>0.32142900000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>10208</v>
+        <v>26107</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>0.42424200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>10120</v>
+        <v>26350</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -771,7 +771,7 @@
         <v>0.43333300000000002</v>
       </c>
       <c r="E17" s="1">
-        <v>10184</v>
+        <v>25785</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>0.42307699999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>10181</v>
+        <v>26129</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -805,7 +805,7 @@
         <v>0.3</v>
       </c>
       <c r="E19" s="1">
-        <v>10255</v>
+        <v>26254</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -822,7 +822,7 @@
         <v>0.37036999999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>10207</v>
+        <v>26385</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -839,7 +839,7 @@
         <v>0.38461499999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>10185</v>
+        <v>26398</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -856,7 +856,7 @@
         <v>0.3125</v>
       </c>
       <c r="E22" s="1">
-        <v>10187</v>
+        <v>26151</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>0.3</v>
       </c>
       <c r="E23" s="1">
-        <v>10203</v>
+        <v>26089</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -890,7 +890,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E24" s="1">
-        <v>10268</v>
+        <v>26035</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -907,7 +907,7 @@
         <v>0.30769200000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>10218</v>
+        <v>26319</v>
       </c>
     </row>
   </sheetData>
